--- a/similarities/split_global/harmonic_similarity_timestamps_164.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_164.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:47.640000', '0:01:48.840000')]</t>
+          <t>('0:00:07.600000', '0:00:24.380000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:34.866000', '0:01:03.543000')]</t>
+          <t>('0:00:22.370000', '0:00:47.630000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=107.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:44.160000', '0:00:52.300000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.820000')]</t>
+          <t>('0:00:07.400000', '0:00:18.960000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=0.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:22.370000', '0:00:47.630000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['C:min7', 'F:7', 'Bb']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['C:min7', 'F:7', 'Bb']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000'), ('0:00:09.660000', '0:00:10.950000')]</t>
+          <t>('0:00:10.130000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000'), ('0:00:40.640000', '0:00:48.100000')]</t>
+          <t>('0:00:48.250000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13', 'https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56', 'https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=40.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C:min', 'G:maj/B', 'C:min', 'C:7/A#', 'F:min/G#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+          <t>('0:00:13.120000', '0:00:23.420000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:10.060000', '0:01:27.320000')]</t>
+          <t>('0:00:13.520000', '0:00:20.380000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>jaah_47</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_10</t>
+          <t>jaah_49</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'F:min7']]</t>
+          <t>['Eb:7', 'Ab:7', 'Db:maj6']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['C:7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:41.090000', '0:01:47.520000')]</t>
+          <t>('0:00:10.330000', '0:00:12.360000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:37.850000', '0:00:45.930000')]</t>
+          <t>('0:00:16.390000', '0:00:20.080000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=101.09']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-47#t=10.33</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-10#t=37.85']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=16.39</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000')]</t>
+          <t>('0:00:10.130000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:42.520000', '0:00:46.360000')]</t>
+          <t>('0:00:55.230000', '0:01:05.420000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D', 'G', 'D']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E', 'A', 'E']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:29.679679', '0:00:41.637956')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:12.971000', '0:00:32.669000')]</t>
+          <t>('0:02:20.480000', '0:02:25.980000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=29.679679']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=12.971']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000'), ('0:00:02.360000', '0:00:05.680000')]</t>
+          <t>('0:01:21.420000', '0:01:30.040000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
+          <t>('0:00:02.300000', '0:00:07.040000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:00.380000', '0:00:06.260000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/G'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:07.300000', '0:00:10.300000'), ('0:00:35.860000', '0:00:37.440000')]</t>
+          <t>('0:00:23.300000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:03.584000', '0:00:13.841000'), ('0:00:48.001000', '0:00:54.307000')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=7.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=3.584', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000'), ('0:04:43.300000', '0:04:50.060000'), ('0:00:26.960000', '0:00:33.500000')]</t>
+          <t>('0:00:20.420000', '0:00:24.160000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000'), ('0:00:41.700000', '0:00:57.940000'), ('0:00:08.300000', '0:00:12.960000')]</t>
+          <t>('0:03:57.580000', '0:04:13.720000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=20.42</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=237.58</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_139</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:maj', 'A#:7', 'D#:maj'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D', 'A', 'A:7/b7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.060000'), ('0:00:42.080000', '0:00:57.880000'), ('0:00:08.260000', '0:00:12.960000')]</t>
+          <t>('0:01:06.260000', '0:01:11.400000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:14.080000', '0:00:20.540000'), ('0:03:56.400000', '0:04:02.100000'), ('0:00:23.980000', '0:00:29.420000')]</t>
+          <t>('0:01:03.382018', '0:01:11.149092')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=66.26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-139#t=63.382018</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:15.940000', '0:00:24.900000')]</t>
+          <t>('0:01:43.520929', '0:01:48.664149')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:41.300000', '0:00:43.480000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=15.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.3']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:15.014000', '0:00:24.195000')]</t>
+          <t>('0:00:05.915850', '0:00:14.867142')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:50.260000')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=15.014']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
